--- a/data/public_wireless_lan/data.xlsx
+++ b/data/public_wireless_lan/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,13 +463,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="str">
-        <v>34.352575</v>
+        <v>34.34911337642227</v>
       </c>
       <c r="C2" t="str">
-        <v>134.0470042</v>
+        <v>134.05062987786422</v>
       </c>
       <c r="D2" t="str">
         <v>37201</v>
@@ -484,7 +484,7 @@
         <v>高松市</v>
       </c>
       <c r="H2" t="str">
-        <v>サンポート高松</v>
+        <v>玉藻公園披雲閣</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -493,7 +493,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>香川県高松市サンポート2番1号</v>
+        <v>香川県高松市玉藻町２番１号</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -508,27 +508,27 @@
         <v/>
       </c>
       <c r="P2" t="str">
-        <v>KAGAWA-WiFi_Takamatsu</v>
+        <v>KAGAWA-WiFi</v>
       </c>
       <c r="Q2" t="str">
-        <v>高松シンボルタワー（市民ギャラリー、コミュニケーションプラザ、オープンホワイエ、オリーブタワー、展示場（ホール棟1階）、デックスガレリア）、高松シンボルタワー西側歩行者専用道路、高松駅、高松駅前広場、高松駅前バスターミナル、大型テナント広場、多目的広場</v>
+        <v/>
       </c>
       <c r="R2" t="str">
         <v/>
       </c>
       <c r="S2" t="str">
-        <v>1回あたりの接続時間：30分（回数制限なし。ただし30分毎に再度認証が必要）</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="str">
-        <v>34.346049</v>
+        <v>34.42222463856056</v>
       </c>
       <c r="C3" t="str">
-        <v>134.050517</v>
+        <v>134.05413144104674</v>
       </c>
       <c r="D3" t="str">
         <v>37201</v>
@@ -543,7 +543,7 @@
         <v>高松市</v>
       </c>
       <c r="H3" t="str">
-        <v>高松中央商店街</v>
+        <v>男木交流館</v>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -552,7 +552,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>香川県高松市丸亀町1</v>
+        <v>香川県高松市男木町１９８６番地</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -567,27 +567,27 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <v>KAGAWA-WiFi_Takamatsu</v>
+        <v>KAGAWA-WiFi</v>
       </c>
       <c r="Q3" t="str">
-        <v>高松中央商店街の街路（アーケード下）</v>
+        <v/>
       </c>
       <c r="R3" t="str">
         <v/>
       </c>
       <c r="S3" t="str">
-        <v>1回あたりの接続時間：30分（回数制限なし。ただし30分毎に再度認証が必要）</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="str">
-        <v>34.34911337642227</v>
+        <v>34.38949764744894</v>
       </c>
       <c r="C4" t="str">
-        <v>134.05062987786422</v>
+        <v>134.05238501219824</v>
       </c>
       <c r="D4" t="str">
         <v>37201</v>
@@ -602,7 +602,7 @@
         <v>高松市</v>
       </c>
       <c r="H4" t="str">
-        <v>玉藻公園披雲閣</v>
+        <v>鬼ヶ島おにの館</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -611,7 +611,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>香川県高松市玉藻町２番１号</v>
+        <v>香川県高松市女木町１５番地２２</v>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -640,13 +640,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="str">
-        <v>34.42222463856056</v>
+        <v>34.17037598630636</v>
       </c>
       <c r="C5" t="str">
-        <v>134.05413144104674</v>
+        <v>134.08232722876988</v>
       </c>
       <c r="D5" t="str">
         <v>37201</v>
@@ -661,7 +661,7 @@
         <v>高松市</v>
       </c>
       <c r="H5" t="str">
-        <v>男木交流館</v>
+        <v>塩江インフォメーションセンター</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -670,7 +670,7 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>香川県高松市男木町１９８６番地</v>
+        <v>香川県高松市塩江町安原上東３９０−９</v>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -699,13 +699,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="str">
-        <v>34.38949764744894</v>
+        <v>34.40944181761771</v>
       </c>
       <c r="C6" t="str">
-        <v>134.05238501219824</v>
+        <v>134.10690956498806</v>
       </c>
       <c r="D6" t="str">
         <v>37201</v>
@@ -720,7 +720,7 @@
         <v>高松市</v>
       </c>
       <c r="H6" t="str">
-        <v>鬼ヶ島おにの館</v>
+        <v>眉山亭</v>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -729,7 +729,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>香川県高松市女木町１５番地２２</v>
+        <v>香川県高松市庵治町６０３４</v>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -758,13 +758,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="str">
-        <v>34.17037598630636</v>
+        <v>34.35903506013678</v>
       </c>
       <c r="C7" t="str">
-        <v>134.08232722876988</v>
+        <v>134.1021938648672</v>
       </c>
       <c r="D7" t="str">
         <v>37201</v>
@@ -779,7 +779,7 @@
         <v>高松市</v>
       </c>
       <c r="H7" t="str">
-        <v>塩江インフォメーションセンター</v>
+        <v>屋島山上時計案内板</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -788,7 +788,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>香川県高松市塩江町安原上東３９０−９</v>
+        <v>香川県高松市屋島東町</v>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -812,130 +812,12 @@
         <v/>
       </c>
       <c r="S7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>10</v>
-      </c>
-      <c r="B8" t="str">
-        <v>34.40944181761771</v>
-      </c>
-      <c r="C8" t="str">
-        <v>134.10690956498806</v>
-      </c>
-      <c r="D8" t="str">
-        <v>37201</v>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <v>香川県</v>
-      </c>
-      <c r="G8" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="H8" t="str">
-        <v>眉山亭</v>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v>香川県高松市庵治町６０３４</v>
-      </c>
-      <c r="L8" t="str">
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <v/>
-      </c>
-      <c r="P8" t="str">
-        <v>KAGAWA-WiFi</v>
-      </c>
-      <c r="Q8" t="str">
-        <v/>
-      </c>
-      <c r="R8" t="str">
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>11</v>
-      </c>
-      <c r="B9" t="str">
-        <v>34.35903506013678</v>
-      </c>
-      <c r="C9" t="str">
-        <v>134.1021938648672</v>
-      </c>
-      <c r="D9" t="str">
-        <v>37201</v>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v>香川県</v>
-      </c>
-      <c r="G9" t="str">
-        <v>高松市</v>
-      </c>
-      <c r="H9" t="str">
-        <v>屋島山上時計案内板</v>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <v>香川県高松市屋島東町</v>
-      </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <v>KAGAWA-WiFi</v>
-      </c>
-      <c r="Q9" t="str">
-        <v/>
-      </c>
-      <c r="R9" t="str">
-        <v/>
-      </c>
-      <c r="S9" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S7"/>
   </ignoredErrors>
 </worksheet>
 </file>